--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>تاريخ</t>
   </si>
@@ -466,6 +466,21 @@
   </si>
   <si>
     <t xml:space="preserve">ايداع حساب ترافكو </t>
+  </si>
+  <si>
+    <t>شيك رقم 394 خالد محمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 94 مصنع </t>
+  </si>
+  <si>
+    <t xml:space="preserve">باقي حساب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وردت ترافكو </t>
+  </si>
+  <si>
+    <t>شيك رقم</t>
   </si>
 </sst>
 </file>
@@ -956,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2096,7 +2111,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:19">
       <c r="A65" s="5">
         <v>43331</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:19">
       <c r="A66" s="5">
         <v>43331</v>
       </c>
@@ -2146,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:19">
       <c r="A67" s="5">
         <v>43331</v>
       </c>
@@ -2164,7 +2179,7 @@
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:19">
       <c r="A68" s="5">
         <v>43331</v>
       </c>
@@ -2182,7 +2197,7 @@
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:19">
       <c r="A69" s="5">
         <v>43331</v>
       </c>
@@ -2200,7 +2215,7 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:19">
       <c r="A70" s="5">
         <v>43332</v>
       </c>
@@ -2218,7 +2233,7 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:19">
       <c r="A71" s="5">
         <v>43339</v>
       </c>
@@ -2236,7 +2251,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:19">
       <c r="A72" s="5">
         <v>43338</v>
       </c>
@@ -2254,7 +2269,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:19">
       <c r="A73" s="5">
         <v>43338</v>
       </c>
@@ -2279,12 +2294,12 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:19">
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:19">
       <c r="A75" s="5">
         <v>43370</v>
       </c>
@@ -2302,7 +2317,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:19">
       <c r="A76" s="5">
         <v>43369</v>
       </c>
@@ -2310,21 +2325,33 @@
         <v>70</v>
       </c>
       <c r="C76" s="1">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="D76" s="18">
-        <f>G76/C76</f>
-        <v>980.39215686274508</v>
+        <v>980</v>
       </c>
       <c r="E76" s="4">
         <f>E75+G76</f>
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="G76" s="7">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <f>D76*C76</f>
+        <v>1960000</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q76" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R76" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="K77" s="14" t="s">
         <v>45</v>
       </c>
@@ -2337,8 +2364,12 @@
       <c r="N77" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="P77" s="13"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="K78" s="13">
         <v>43297</v>
       </c>
@@ -2349,8 +2380,27 @@
       <c r="N78" s="17">
         <v>2400</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="P78" s="13">
+        <v>43373</v>
+      </c>
+      <c r="Q78" s="12">
+        <v>1600</v>
+      </c>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12">
+        <f>S77+Q78</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="4">
+        <f>E76</f>
+        <v>-40000</v>
+      </c>
       <c r="K79" s="13">
         <v>43316</v>
       </c>
@@ -2362,8 +2412,39 @@
         <f>N78+L79</f>
         <v>5700</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="P79" s="13">
+        <v>43373</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>10000</v>
+      </c>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12">
+        <f>S78+Q79</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="5">
+        <v>43373</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D80" s="3">
+        <v>975</v>
+      </c>
+      <c r="E80" s="4">
+        <f>E79+G80</f>
+        <v>1520000</v>
+      </c>
+      <c r="G80" s="4">
+        <f>D80*C80</f>
+        <v>1560000</v>
+      </c>
       <c r="K80" s="13">
         <v>43327</v>
       </c>
@@ -2375,9 +2456,32 @@
         <f>N79-M80</f>
         <v>3300</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="5"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="5">
+        <v>43373</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="3">
+        <v>970</v>
+      </c>
+      <c r="E81" s="4">
+        <f>E80+G81</f>
+        <v>11220000</v>
+      </c>
+      <c r="G81" s="4">
+        <f>D81*C81</f>
+        <v>9700000</v>
+      </c>
       <c r="K81" s="13">
         <v>43327</v>
       </c>
@@ -2389,9 +2493,25 @@
         <f>N80-M81</f>
         <v>2600</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="5"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="5">
+        <v>43370</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="4">
+        <f>E81-F82</f>
+        <v>9834000</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1386000</v>
+      </c>
       <c r="K82" s="13">
         <v>43330</v>
       </c>
@@ -2403,9 +2523,25 @@
         <f>N81-M82</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="5"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="5">
+        <v>43370</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="4">
+        <f>E82-F83</f>
+        <v>8854000</v>
+      </c>
+      <c r="F83" s="4">
+        <v>980000</v>
+      </c>
       <c r="K83" s="13">
         <v>43331</v>
       </c>
@@ -2417,9 +2553,25 @@
         <f>N82+L83</f>
         <v>1300</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="5"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="5">
+        <v>43370</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="4">
+        <f>E83-F84</f>
+        <v>7700000</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1154000</v>
+      </c>
       <c r="K84" s="13">
         <v>43338</v>
       </c>
@@ -2431,9 +2583,23 @@
         <f>N83-M84</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
+      <c r="B85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="4">
+        <f>E84-F85</f>
+        <v>6680000</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1020000</v>
+      </c>
       <c r="K85" s="13">
         <v>43338</v>
       </c>
@@ -2444,9 +2610,23 @@
       <c r="N85" s="12">
         <v>12000</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
+      <c r="B86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="4">
+        <f>E85-F86</f>
+        <v>5700000</v>
+      </c>
+      <c r="F86" s="4">
+        <v>980000</v>
+      </c>
       <c r="K86" s="13">
         <v>43338</v>
       </c>
@@ -2458,9 +2638,23 @@
         <f t="shared" ref="N86:N92" si="4">N85-M86</f>
         <v>10700</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
+      <c r="B87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="7">
+        <f>E86-F87</f>
+        <v>2100000</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3600000</v>
+      </c>
       <c r="K87" s="13">
         <v>43342</v>
       </c>
@@ -2472,9 +2666,23 @@
         <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="4">
+        <f>E87-F88</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>2100000</v>
+      </c>
       <c r="K88" s="13">
         <v>43345</v>
       </c>
@@ -2486,8 +2694,12 @@
         <f t="shared" si="4"/>
         <v>3100</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="K89" s="13">
         <v>43346</v>
@@ -2500,8 +2712,12 @@
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="5"/>
       <c r="K90" s="13">
         <v>43347</v>
@@ -2514,8 +2730,12 @@
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="K91" s="13">
         <v>43348</v>
       </c>
@@ -2527,8 +2747,12 @@
         <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="K92" s="13">
         <v>43349</v>
       </c>
@@ -2540,12 +2764,20 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>تاريخ</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>شيك رقم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 525 مهند الامين </t>
   </si>
 </sst>
 </file>
@@ -973,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2383,7 +2386,7 @@
       <c r="P78" s="13">
         <v>43373</v>
       </c>
-      <c r="Q78" s="12">
+      <c r="Q78" s="15">
         <v>1600</v>
       </c>
       <c r="R78" s="12"/>
@@ -2415,7 +2418,7 @@
       <c r="P79" s="13">
         <v>43373</v>
       </c>
-      <c r="Q79" s="12">
+      <c r="Q79" s="15">
         <v>10000</v>
       </c>
       <c r="R79" s="12"/>
@@ -2456,10 +2459,17 @@
         <f>N79-M80</f>
         <v>3300</v>
       </c>
-      <c r="P80" s="12"/>
+      <c r="P80" s="13">
+        <v>43370</v>
+      </c>
       <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
+      <c r="R80" s="15">
+        <v>1600</v>
+      </c>
+      <c r="S80" s="12">
+        <f>S79-R80</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="5">
@@ -2493,10 +2503,17 @@
         <f>N80-M81</f>
         <v>2600</v>
       </c>
-      <c r="P81" s="12"/>
+      <c r="P81" s="13">
+        <v>43372</v>
+      </c>
       <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
+      <c r="R81" s="12">
+        <v>4000</v>
+      </c>
+      <c r="S81" s="12">
+        <f>S80-R81</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="5">
@@ -2506,7 +2523,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="4">
-        <f>E81-F82</f>
+        <f t="shared" ref="E82:E88" si="4">E81-F82</f>
         <v>9834000</v>
       </c>
       <c r="F82" s="4">
@@ -2523,10 +2540,17 @@
         <f>N81-M82</f>
         <v>500</v>
       </c>
-      <c r="P82" s="12"/>
+      <c r="P82" s="13">
+        <v>43373</v>
+      </c>
       <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
+      <c r="R82" s="12">
+        <v>2100</v>
+      </c>
+      <c r="S82" s="12">
+        <f>S81-R82</f>
+        <v>3900</v>
+      </c>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="5">
@@ -2536,7 +2560,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="4">
-        <f>E82-F83</f>
+        <f t="shared" si="4"/>
         <v>8854000</v>
       </c>
       <c r="F83" s="4">
@@ -2553,10 +2577,17 @@
         <f>N82+L83</f>
         <v>1300</v>
       </c>
-      <c r="P83" s="12"/>
+      <c r="P83" s="13">
+        <v>43375</v>
+      </c>
       <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
+      <c r="R83" s="12">
+        <v>1000</v>
+      </c>
+      <c r="S83" s="12">
+        <f>S82-R83</f>
+        <v>2900</v>
+      </c>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="5">
@@ -2566,7 +2597,7 @@
         <v>75</v>
       </c>
       <c r="E84" s="4">
-        <f>E83-F84</f>
+        <f t="shared" si="4"/>
         <v>7700000</v>
       </c>
       <c r="F84" s="4">
@@ -2583,18 +2614,27 @@
         <f>N83-M84</f>
         <v>0</v>
       </c>
-      <c r="P84" s="12"/>
+      <c r="P84" s="13">
+        <v>43376</v>
+      </c>
       <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
+      <c r="R84" s="12">
+        <v>800</v>
+      </c>
+      <c r="S84" s="12">
+        <f>S83-R84</f>
+        <v>2100</v>
+      </c>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5">
+        <v>43375</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E85" s="4">
-        <f>E84-F85</f>
+        <f t="shared" si="4"/>
         <v>6680000</v>
       </c>
       <c r="F85" s="4">
@@ -2610,18 +2650,27 @@
       <c r="N85" s="12">
         <v>12000</v>
       </c>
-      <c r="P85" s="12"/>
+      <c r="P85" s="13">
+        <v>43377</v>
+      </c>
       <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
+      <c r="R85" s="12">
+        <v>1300</v>
+      </c>
+      <c r="S85" s="12">
+        <f>S84-R85</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5">
+        <v>43376</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E86" s="4">
-        <f>E85-F86</f>
+        <f t="shared" si="4"/>
         <v>5700000</v>
       </c>
       <c r="F86" s="4">
@@ -2635,21 +2684,29 @@
         <v>1300</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" ref="N86:N92" si="4">N85-M86</f>
+        <f t="shared" ref="N86:N92" si="5">N85-M86</f>
         <v>10700</v>
       </c>
-      <c r="P86" s="12"/>
+      <c r="P86" s="13">
+        <v>43381</v>
+      </c>
       <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
+      <c r="R86" s="12">
+        <v>600</v>
+      </c>
+      <c r="S86" s="12">
+        <v>200</v>
+      </c>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5">
+        <v>43377</v>
+      </c>
       <c r="B87" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E87" s="7">
-        <f>E86-F87</f>
+        <f t="shared" si="4"/>
         <v>2100000</v>
       </c>
       <c r="F87" s="4">
@@ -2663,21 +2720,29 @@
         <v>6200</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4500</v>
       </c>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
+      <c r="P87" s="13">
+        <v>43383</v>
+      </c>
+      <c r="Q87" s="15">
+        <v>500</v>
+      </c>
       <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
+      <c r="S87" s="12">
+        <v>700</v>
+      </c>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5">
+        <v>43378</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E88" s="4">
-        <f>E87-F88</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="7">
@@ -2691,16 +2756,34 @@
         <v>1400</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3100</v>
       </c>
-      <c r="P88" s="12"/>
+      <c r="P88" s="13">
+        <v>43382</v>
+      </c>
       <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
+      <c r="R88" s="12">
+        <v>700</v>
+      </c>
+      <c r="S88" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5">
+        <v>43383</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" s="7">
+        <f>-F89</f>
+        <v>-565000</v>
+      </c>
+      <c r="F89" s="4">
+        <v>565000</v>
+      </c>
       <c r="K89" s="13">
         <v>43346</v>
       </c>
@@ -2709,7 +2792,7 @@
         <v>600</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="P89" s="12"/>
@@ -2718,7 +2801,26 @@
       <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5">
+        <v>43382</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="1">
+        <v>500</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1130</v>
+      </c>
+      <c r="E90" s="4">
+        <f>E89+G90</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <f>D90*C90</f>
+        <v>565000</v>
+      </c>
       <c r="K90" s="13">
         <v>43347</v>
       </c>
@@ -2727,7 +2829,7 @@
         <v>700</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
       <c r="P90" s="12"/>
@@ -2744,7 +2846,7 @@
         <v>900</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="P91" s="12"/>
@@ -2761,7 +2863,7 @@
         <v>900</v>
       </c>
       <c r="N92" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P92" s="12"/>

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>تاريخ</t>
   </si>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89:Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2467,7 +2467,7 @@
         <v>1600</v>
       </c>
       <c r="S80" s="12">
-        <f>S79-R80</f>
+        <f t="shared" ref="S80:S85" si="4">S79-R80</f>
         <v>10000</v>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>4000</v>
       </c>
       <c r="S81" s="12">
-        <f>S80-R81</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" ref="E82:E88" si="4">E81-F82</f>
+        <f t="shared" ref="E82:E88" si="5">E81-F82</f>
         <v>9834000</v>
       </c>
       <c r="F82" s="4">
@@ -2548,7 +2548,7 @@
         <v>2100</v>
       </c>
       <c r="S82" s="12">
-        <f>S81-R82</f>
+        <f t="shared" si="4"/>
         <v>3900</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
         <v>73</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8854000</v>
       </c>
       <c r="F83" s="4">
@@ -2585,7 +2585,7 @@
         <v>1000</v>
       </c>
       <c r="S83" s="12">
-        <f>S82-R83</f>
+        <f t="shared" si="4"/>
         <v>2900</v>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
         <v>75</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7700000</v>
       </c>
       <c r="F84" s="4">
@@ -2622,7 +2622,7 @@
         <v>800</v>
       </c>
       <c r="S84" s="12">
-        <f>S83-R84</f>
+        <f t="shared" si="4"/>
         <v>2100</v>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
         <v>76</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6680000</v>
       </c>
       <c r="F85" s="4">
@@ -2658,7 +2658,7 @@
         <v>1300</v>
       </c>
       <c r="S85" s="12">
-        <f>S84-R85</f>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>76</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5700000</v>
       </c>
       <c r="F86" s="4">
@@ -2684,7 +2684,7 @@
         <v>1300</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" ref="N86:N92" si="5">N85-M86</f>
+        <f t="shared" ref="N86:N92" si="6">N85-M86</f>
         <v>10700</v>
       </c>
       <c r="P86" s="13">
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2100000</v>
       </c>
       <c r="F87" s="4">
@@ -2720,7 +2720,7 @@
         <v>6200</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
       <c r="P87" s="13">
@@ -2742,7 +2742,7 @@
         <v>76</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88" s="7">
@@ -2756,7 +2756,7 @@
         <v>1400</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="P88" s="13">
@@ -2792,13 +2792,20 @@
         <v>600</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
+      <c r="P89" s="13">
+        <v>43383</v>
+      </c>
+      <c r="Q89" s="15">
+        <v>1400</v>
+      </c>
       <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
+      <c r="S89" s="12">
+        <f>Q89</f>
+        <v>1400</v>
+      </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="5">
@@ -2829,13 +2836,20 @@
         <v>700</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
+      <c r="P90" s="13">
+        <v>43384</v>
+      </c>
+      <c r="Q90" s="15">
+        <v>3500</v>
+      </c>
       <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
+      <c r="S90" s="12">
+        <f>S89+Q90</f>
+        <v>4900</v>
+      </c>
     </row>
     <row r="91" spans="1:19">
       <c r="K91" s="13">
@@ -2846,15 +2860,42 @@
         <v>900</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="P91" s="12"/>
+      <c r="P91" s="13">
+        <v>43414</v>
+      </c>
       <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
+      <c r="R91" s="12">
+        <v>1400</v>
+      </c>
+      <c r="S91" s="12">
+        <f>S90-R91</f>
+        <v>3500</v>
+      </c>
     </row>
     <row r="92" spans="1:19">
+      <c r="A92" s="5">
+        <v>43383</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E92" s="4">
+        <f>G92</f>
+        <v>1456000</v>
+      </c>
+      <c r="G92" s="4">
+        <f>D92*C92</f>
+        <v>1456000</v>
+      </c>
       <c r="K92" s="13">
         <v>43349</v>
       </c>
@@ -2863,15 +2904,42 @@
         <v>900</v>
       </c>
       <c r="N92" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P92" s="12"/>
+      <c r="P92" s="13">
+        <v>43384</v>
+      </c>
       <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
+      <c r="R92" s="12">
+        <v>3500</v>
+      </c>
+      <c r="S92" s="12">
+        <f>S91-R92</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:19">
+      <c r="A93" s="5">
+        <v>43384</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E93" s="4">
+        <f>E92+G93</f>
+        <v>5096000</v>
+      </c>
+      <c r="G93" s="4">
+        <f>D93*C93</f>
+        <v>3640000</v>
+      </c>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>تاريخ</t>
   </si>
@@ -484,6 +484,97 @@
   </si>
   <si>
     <t xml:space="preserve">شيك رقم 525 مهند الامين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 12237 عمر محمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ايداع حساب سفانا للدواجن </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>364</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 11265 ايمن مجذوب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11264 ايمن مجذوب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11259 ايمن مجذوب </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>369</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11266 ايمن مجذوب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11267 ايمن مجذوب </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>370</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11261 ايمن مجذوب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11268 ايمن مجذوب </t>
   </si>
 </sst>
 </file>
@@ -974,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="Q89" sqref="Q89:Q90"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2463,7 +2554,7 @@
         <v>43370</v>
       </c>
       <c r="Q80" s="12"/>
-      <c r="R80" s="15">
+      <c r="R80" s="17">
         <v>1600</v>
       </c>
       <c r="S80" s="12">
@@ -2944,10 +3035,311 @@
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
+      <c r="P93" s="13">
+        <v>43386</v>
+      </c>
+      <c r="Q93" s="15">
+        <v>1400</v>
+      </c>
       <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
+      <c r="S93" s="12">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="4">
+        <f>E93-F94</f>
+        <v>2096000</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="P94" s="13">
+        <v>43386</v>
+      </c>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12">
+        <v>1400</v>
+      </c>
+      <c r="S94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="7">
+        <f>E94-F95</f>
+        <v>-1456000</v>
+      </c>
+      <c r="F95" s="4">
+        <v>3552000</v>
+      </c>
+      <c r="P95" s="13">
+        <v>43386</v>
+      </c>
+      <c r="Q95" s="15">
+        <v>9000</v>
+      </c>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="5">
+        <v>43386</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E96" s="4">
+        <f>E95+G96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <f>D96*C96</f>
+        <v>1456000</v>
+      </c>
+      <c r="P96" s="13">
+        <v>43386</v>
+      </c>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12">
+        <v>9000</v>
+      </c>
+      <c r="S96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="P97" s="13">
+        <v>43388</v>
+      </c>
+      <c r="Q97" s="15">
+        <v>5100</v>
+      </c>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="5">
+        <v>43386</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1048</v>
+      </c>
+      <c r="E98" s="4">
+        <f>G98</f>
+        <v>9432000</v>
+      </c>
+      <c r="G98" s="4">
+        <f>D98*C98</f>
+        <v>9432000</v>
+      </c>
+      <c r="P98" s="13">
+        <v>43388</v>
+      </c>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="17">
+        <v>5100</v>
+      </c>
+      <c r="S98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="4">
+        <f>E98-F99</f>
+        <v>6432000</v>
+      </c>
+      <c r="F99" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="P99" s="13">
+        <v>43389</v>
+      </c>
+      <c r="Q99" s="15">
+        <v>4200</v>
+      </c>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="7">
+        <f>E99-F100</f>
+        <v>3232000</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="P100" s="13">
+        <v>43389</v>
+      </c>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12">
+        <v>4200</v>
+      </c>
+      <c r="S100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="5">
+        <v>43390</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="4">
+        <f>E100-F101</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>3232000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1030</v>
+      </c>
+      <c r="E103" s="4">
+        <f>G103</f>
+        <v>5253000</v>
+      </c>
+      <c r="G103" s="4">
+        <f>D103*C103</f>
+        <v>5253000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E104" s="7">
+        <f>E103-F104</f>
+        <v>2153000</v>
+      </c>
+      <c r="F104" s="4">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="4">
+        <f>E104-F105</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>2153000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1030</v>
+      </c>
+      <c r="E107" s="4">
+        <f>G107</f>
+        <v>4326000</v>
+      </c>
+      <c r="G107" s="4">
+        <f>D107*C107</f>
+        <v>4326000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E108" s="7">
+        <f>E107-F108</f>
+        <v>2326000</v>
+      </c>
+      <c r="F108" s="4">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="5">
+        <v>43394</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="4">
+        <f>E108-F109</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>2326000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>تاريخ</t>
   </si>
@@ -575,6 +575,25 @@
   </si>
   <si>
     <t xml:space="preserve">شيك 11268 ايمن مجذوب </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>371</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك 11274 ايمن مجذوب </t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3339,6 +3358,65 @@
       </c>
       <c r="F109" s="7">
         <v>2326000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E111" s="4">
+        <f>G111</f>
+        <v>1352000</v>
+      </c>
+      <c r="G111" s="4">
+        <f>D111*C111</f>
+        <v>1352000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="1">
+        <v>100</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1030</v>
+      </c>
+      <c r="E112" s="7">
+        <f>E111+G112</f>
+        <v>1455000</v>
+      </c>
+      <c r="G112" s="4">
+        <f>D112*C112</f>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="5">
+        <v>43394</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E113" s="4">
+        <f>E112-F113</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1455000</v>
       </c>
     </row>
   </sheetData>

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>تاريخ</t>
   </si>
@@ -594,6 +594,82 @@
   </si>
   <si>
     <t xml:space="preserve">شيك 11274 ايمن مجذوب </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>374</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 133 عصمت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 134 عصمت </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>377</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>378</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 141 عصمت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 142 عصمت </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>379</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1084,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3368,18 +3444,18 @@
         <v>91</v>
       </c>
       <c r="C111" s="1">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="D111" s="3">
         <v>1040</v>
       </c>
       <c r="E111" s="4">
         <f>G111</f>
-        <v>1352000</v>
+        <v>1976000</v>
       </c>
       <c r="G111" s="4">
         <f>D111*C111</f>
-        <v>1352000</v>
+        <v>1976000</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -3395,16 +3471,16 @@
       <c r="D112" s="3">
         <v>1030</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <f>E111+G112</f>
-        <v>1455000</v>
+        <v>2079000</v>
       </c>
       <c r="G112" s="4">
         <f>D112*C112</f>
         <v>103000</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:7">
       <c r="A113" s="5">
         <v>43394</v>
       </c>
@@ -3413,10 +3489,158 @@
       </c>
       <c r="E113" s="4">
         <f>E112-F113</f>
+        <v>624000</v>
+      </c>
+      <c r="F113" s="8">
+        <v>1455000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="5">
+        <v>43390</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1090</v>
+      </c>
+      <c r="E114" s="4">
+        <f>E113+G114</f>
+        <v>2368000</v>
+      </c>
+      <c r="G114" s="4">
+        <f>D114*C114</f>
+        <v>1744000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="5">
+        <v>43393</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="7">
+        <f>E114-F115</f>
+        <v>1368000</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="5">
+        <v>43393</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="4">
+        <f>E115-F116</f>
         <v>0</v>
       </c>
-      <c r="F113" s="7">
-        <v>1455000</v>
+      <c r="F116" s="7">
+        <v>1368000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2300</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1070</v>
+      </c>
+      <c r="E118" s="4">
+        <f>G118</f>
+        <v>2461000</v>
+      </c>
+      <c r="G118" s="4">
+        <f>D118*C118</f>
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="5">
+        <v>43392</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1075</v>
+      </c>
+      <c r="E119" s="4">
+        <f>E118+G119</f>
+        <v>4503500</v>
+      </c>
+      <c r="G119" s="4">
+        <f>D119*C119</f>
+        <v>2042500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="5">
+        <v>43395</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120" s="7">
+        <f>E119-F120</f>
+        <v>2042500</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="5">
+        <v>43396</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E121" s="4">
+        <f>E120-F121</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>2042500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="5">
+        <v>43394</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1037</v>
+      </c>
+      <c r="E123" s="4">
+        <f>G123</f>
+        <v>4355400</v>
+      </c>
+      <c r="G123" s="4">
+        <f>D123*C123</f>
+        <v>4355400</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +3652,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E51 E53 N83" formula="1"/>
+    <ignoredError sqref="E51 E53 N83 E113:E114" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/e9mat alamein.xlsx
+++ b/e9mat alamein.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>تاريخ</t>
   </si>
@@ -669,6 +669,116 @@
         <scheme val="minor"/>
       </rPr>
       <t>379</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 146 عصمت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 145 عصمت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 12353 سعد الدين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شييك رقم 710 عصمت الامين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">توريد كاش </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 711 عصمت الامين </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>381</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>384</t>
+    </r>
+  </si>
+  <si>
+    <t>توريد حساب سفانا للدواجن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 13122 عصمت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 1009 الهادي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيك رقم 1011 الهادي </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>386</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اذن خروج رقم </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>387</t>
     </r>
   </si>
 </sst>
@@ -727,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +862,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -813,12 +929,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,6 +1036,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S123"/>
+  <dimension ref="A1:S147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3643,11 +3839,320 @@
         <v>4355400</v>
       </c>
     </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="5">
+        <v>43397</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E124" s="7">
+        <f>E123-F124</f>
+        <v>2355400</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="5">
+        <v>43397</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E125" s="4">
+        <f>E124-F125</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>2355400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="5">
+        <v>43394</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1143</v>
+      </c>
+      <c r="E127" s="4">
+        <f>G127</f>
+        <v>4000500</v>
+      </c>
+      <c r="G127" s="4">
+        <f>D127*C127</f>
+        <v>4000500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="5">
+        <v>43398</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" s="4">
+        <f>E127-F128</f>
+        <v>2309500</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1691000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="5">
+        <v>43398</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="7">
+        <f>E128-F129</f>
+        <v>230000</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2079500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="5">
+        <v>43397</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="4">
+        <f>E129-F130</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="5">
+        <v>43394</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C132" s="1">
+        <v>800</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1143</v>
+      </c>
+      <c r="E132" s="7">
+        <f>G132</f>
+        <v>914400</v>
+      </c>
+      <c r="G132" s="4">
+        <f>D132*C132</f>
+        <v>914400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="5">
+        <v>43401</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="4">
+        <f>E132-F133</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>914400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="5">
+        <v>43401</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2340</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1155</v>
+      </c>
+      <c r="E135" s="7">
+        <f>G135</f>
+        <v>2702700</v>
+      </c>
+      <c r="G135" s="4">
+        <f>D135*C135</f>
+        <v>2702700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="5">
+        <v>43403</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E136" s="4">
+        <f>E135-F136</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>2702700</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="5">
+        <v>43401</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C138" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1163</v>
+      </c>
+      <c r="E138" s="4">
+        <f>G138</f>
+        <v>6978000</v>
+      </c>
+      <c r="G138" s="4">
+        <f>D138*C138</f>
+        <v>6978000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="5">
+        <v>43402</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1150</v>
+      </c>
+      <c r="E139" s="4">
+        <f>E138+G139</f>
+        <v>13418000</v>
+      </c>
+      <c r="G139" s="4">
+        <f>D139*C139</f>
+        <v>6440000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="5">
+        <v>43404</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="4">
+        <f>E139-F140</f>
+        <v>8418000</v>
+      </c>
+      <c r="F140" s="4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="5">
+        <v>43404</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141" s="4">
+        <f>E140-F141</f>
+        <v>8368000</v>
+      </c>
+      <c r="F141" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E142" s="4">
+        <f>E141-F142</f>
+        <v>7720000</v>
+      </c>
+      <c r="F142" s="4">
+        <v>648000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E143" s="7">
+        <f>E142-F143</f>
+        <v>3860000</v>
+      </c>
+      <c r="F143" s="4">
+        <v>3860000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E144" s="4">
+        <f>E143-F144</f>
+        <v>0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>3860000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A146" s="25"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="27"/>
+    </row>
+    <row r="147" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A147" s="28"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="K59:M59"/>
     <mergeCell ref="K46:M46"/>
+    <mergeCell ref="A146:G147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
